--- a/src/main/java/com/api/data/controller.xlsx
+++ b/src/main/java/com/api/data/controller.xlsx
@@ -41,13 +41,13 @@
     <t xml:space="preserve">TC001</t>
   </si>
   <si>
-    <t xml:space="preserve">TestCase1</t>
+    <t xml:space="preserve">Verifying status code of product URI</t>
   </si>
   <si>
     <t xml:space="preserve">Yes</t>
   </si>
   <si>
-    <t xml:space="preserve">testdata</t>
+    <t xml:space="preserve">api_data</t>
   </si>
   <si>
     <t xml:space="preserve">Sanity</t>
@@ -233,7 +233,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/src/main/java/com/api/data/controller.xlsx
+++ b/src/main/java/com/api/data/controller.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t xml:space="preserve">TCID</t>
   </si>
@@ -51,6 +51,24 @@
   </si>
   <si>
     <t xml:space="preserve">Sanity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POST new record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUT command verification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELETE command verification</t>
   </si>
 </sst>
 </file>
@@ -233,7 +251,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -272,7 +290,7 @@
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -280,6 +298,51 @@
       </c>
       <c r="E2" s="4" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/main/java/com/api/data/controller.xlsx
+++ b/src/main/java/com/api/data/controller.xlsx
@@ -251,7 +251,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -370,7 +370,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
+      <selection pane="topLeft" activeCell="D27" activeCellId="1" sqref="C2:C4 D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/src/main/java/com/api/data/controller.xlsx
+++ b/src/main/java/com/api/data/controller.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t xml:space="preserve">TCID</t>
   </si>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t xml:space="preserve">TC004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PATCH command verification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC005</t>
   </si>
   <si>
     <t xml:space="preserve">DELETE command verification</t>
@@ -248,10 +254,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C2:C4"/>
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -345,11 +351,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="3"/>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -370,7 +384,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D27" activeCellId="1" sqref="C2:C4 D27"/>
+      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/src/main/java/com/api/data/controller.xlsx
+++ b/src/main/java/com/api/data/controller.xlsx
@@ -257,7 +257,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/src/main/java/com/api/data/controller.xlsx
+++ b/src/main/java/com/api/data/controller.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t xml:space="preserve">TCID</t>
   </si>
@@ -75,6 +75,18 @@
   </si>
   <si>
     <t xml:space="preserve">DELETE command verification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get product with ID of 9132294 (sku)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get all products, limit to 1 result</t>
   </si>
 </sst>
 </file>
@@ -254,10 +266,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -362,6 +374,34 @@
         <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>8</v>
       </c>
     </row>

--- a/src/main/java/com/api/data/controller.xlsx
+++ b/src/main/java/com/api/data/controller.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
   <si>
     <t xml:space="preserve">TCID</t>
   </si>
@@ -87,6 +87,18 @@
   </si>
   <si>
     <t xml:space="preserve">Get all products, limit to 1 result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negative testing- having a mandatory request payload field blank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negative testing- having a mandatory request payload field differing with input type</t>
   </si>
 </sst>
 </file>
@@ -266,10 +278,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -377,7 +389,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>18</v>
       </c>
@@ -391,7 +403,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>20</v>
       </c>
@@ -402,6 +414,34 @@
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="0" t="s">
         <v>8</v>
       </c>
     </row>

--- a/src/main/java/com/api/data/controller.xlsx
+++ b/src/main/java/com/api/data/controller.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
   <si>
     <t xml:space="preserve">TCID</t>
   </si>
@@ -50,9 +50,6 @@
     <t xml:space="preserve">api_data</t>
   </si>
   <si>
-    <t xml:space="preserve">Sanity</t>
-  </si>
-  <si>
     <t xml:space="preserve">TC002</t>
   </si>
   <si>
@@ -99,6 +96,18 @@
   </si>
   <si>
     <t xml:space="preserve">Negative testing- having a mandatory request payload field differing with input type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validation of sending Price field value as decimal instead of integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validation of sending special character</t>
   </si>
 </sst>
 </file>
@@ -278,10 +287,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -326,33 +335,29 @@
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="C3" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>13</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>7</v>
@@ -363,10 +368,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>15</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>7</v>
@@ -377,10 +382,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>17</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>7</v>
@@ -391,10 +396,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>19</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>7</v>
@@ -405,10 +410,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>21</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>7</v>
@@ -419,10 +424,10 @@
     </row>
     <row r="9" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>7</v>
@@ -433,15 +438,43 @@
     </row>
     <row r="10" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="0" t="s">
+      <c r="B11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="0" t="s">
         <v>8</v>
       </c>
     </row>
